--- a/예측 코드- Python/예측 코드- Python/소비자 물가지수.xlsx
+++ b/예측 코드- Python/예측 코드- Python/소비자 물가지수.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjaud\OneDrive\바탕 화면\예측 코드- Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\J_plus_D\예측 코드- Python\예측 코드- Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200A4483-C2B1-4FEF-A6C5-A468A17388F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12705" yWindow="0" windowWidth="12975" windowHeight="15375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>2018년 02월</t>
   </si>
@@ -204,12 +203,49 @@
   <si>
     <t>CPI</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년 01월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년 02월</t>
+  </si>
+  <si>
+    <t>2023년 03월</t>
+  </si>
+  <si>
+    <t>2023년 04월</t>
+  </si>
+  <si>
+    <t>2023년 05월</t>
+  </si>
+  <si>
+    <t>2023년 06월</t>
+  </si>
+  <si>
+    <t>2023년 07월</t>
+  </si>
+  <si>
+    <t>2023년 08월</t>
+  </si>
+  <si>
+    <t>2023년 09월</t>
+  </si>
+  <si>
+    <t>2023년 10월</t>
+  </si>
+  <si>
+    <t>2023년 11월</t>
+  </si>
+  <si>
+    <t>2023년 12월</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,7 +478,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -451,7 +487,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -726,21 +762,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:BU2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AZ1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BH13" sqref="BH13"/>
+      <selection activeCell="BJ1" sqref="BJ1:BU1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +957,44 @@
       <c r="BI1" t="s">
         <v>42</v>
       </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
